--- a/Documentation/Gantt_Charts/Project4ActualChart.xlsx
+++ b/Documentation/Gantt_Charts/Project4ActualChart.xlsx
@@ -32,12 +32,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
     <t>Look at requirements/Brainstorm</t>
   </si>
   <si>
@@ -90,13 +84,19 @@
   </si>
   <si>
     <t>TASK</t>
+  </si>
+  <si>
+    <t>START DATE</t>
+  </si>
+  <si>
+    <t>DURATION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +107,11 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times Roman"/>
     </font>
@@ -134,13 +139,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -606,9 +611,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Times" charset="0"/>
+                <a:ea typeface="Times" charset="0"/>
+                <a:cs typeface="Times" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1521,223 +1526,222 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="2" max="3" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="B2" s="4">
         <v>43173</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="B3" s="4">
         <v>43174</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B4" s="4">
         <v>43176</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B5" s="4">
         <v>43174</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B6" s="4">
         <v>43187</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B7" s="4">
         <v>43191</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B8" s="4">
         <v>43191</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B9" s="4">
         <v>43196</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B10" s="4">
         <v>43193</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B11" s="4">
         <v>43198</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B12" s="4">
         <v>43198</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B13" s="4">
         <v>43196</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B14" s="4">
         <v>43206</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B15" s="4">
         <v>43202</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B16" s="4">
         <v>43219</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B17" s="4">
         <v>43220</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B18" s="4">
         <v>43221</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>11</v>
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B19" s="4">
         <v>43226</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>7</v>
       </c>
     </row>

--- a/Documentation/Gantt_Charts/Project4ActualChart.xlsx
+++ b/Documentation/Gantt_Charts/Project4ActualChart.xlsx
@@ -323,7 +323,7 @@
                   <c:v>43221.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43226.0</c:v>
+                  <c:v>43222.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -490,7 +490,7 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1526,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1739,10 +1739,10 @@
         <v>9</v>
       </c>
       <c r="B19" s="4">
-        <v>43226</v>
+        <v>43222</v>
       </c>
       <c r="C19" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
